--- a/sprint10/dades_GrupB.xlsx
+++ b/sprint10/dades_GrupB.xlsx
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.144</v>
+        <v>1144</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
@@ -616,7 +616,7 @@
         <v>0.035</v>
       </c>
       <c r="T2" t="n">
-        <v>1.17832</v>
+        <v>1178.32</v>
       </c>
     </row>
     <row r="3">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.944</v>
+        <v>1944</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
@@ -696,7 +696,7 @@
         <v>0.035</v>
       </c>
       <c r="T3" t="n">
-        <v>2.00232</v>
+        <v>2002.32</v>
       </c>
     </row>
     <row r="4">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.438</v>
+        <v>1438</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
@@ -776,7 +776,7 @@
         <v>0.035</v>
       </c>
       <c r="T4" t="n">
-        <v>1.48114</v>
+        <v>1481.14</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.374</v>
+        <v>1374</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
@@ -856,7 +856,7 @@
         <v>0.035</v>
       </c>
       <c r="T5" t="n">
-        <v>1.41522</v>
+        <v>1415.22</v>
       </c>
     </row>
     <row r="6">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2.102</v>
+        <v>2102</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>0.035</v>
       </c>
       <c r="T6" t="n">
-        <v>2.16506</v>
+        <v>2165.06</v>
       </c>
     </row>
     <row r="7">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.901</v>
+        <v>1901</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>0.035</v>
       </c>
       <c r="T7" t="n">
-        <v>1.95803</v>
+        <v>1958.03</v>
       </c>
     </row>
     <row r="8">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2.027</v>
+        <v>2027</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>0.035</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08781</v>
+        <v>2087.81</v>
       </c>
     </row>
     <row r="9">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1.498</v>
+        <v>1498</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>25510</v>
       </c>
       <c r="Q9" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>0.035</v>
       </c>
       <c r="T9" t="n">
-        <v>1.54294</v>
+        <v>1542.94</v>
       </c>
     </row>
     <row r="10">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2.129</v>
+        <v>2129</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
@@ -1256,7 +1256,7 @@
         <v>0.035</v>
       </c>
       <c r="T10" t="n">
-        <v>2.19287</v>
+        <v>2192.87</v>
       </c>
     </row>
     <row r="11">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1.412</v>
+        <v>1412</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>0.035</v>
       </c>
       <c r="T11" t="n">
-        <v>1.45436</v>
+        <v>1454.36</v>
       </c>
     </row>
     <row r="12">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1.421</v>
+        <v>1421</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
@@ -1416,7 +1416,7 @@
         <v>0.035</v>
       </c>
       <c r="T12" t="n">
-        <v>1.46363</v>
+        <v>1463.63</v>
       </c>
     </row>
     <row r="13">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1.55</v>
+        <v>1550</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0.035</v>
       </c>
       <c r="T13" t="n">
-        <v>1.5965</v>
+        <v>1596.5</v>
       </c>
     </row>
     <row r="14">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1.971</v>
+        <v>1971</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
@@ -1576,7 +1576,7 @@
         <v>0.035</v>
       </c>
       <c r="T14" t="n">
-        <v>2.03013</v>
+        <v>2030.13</v>
       </c>
     </row>
     <row r="15">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1.968</v>
+        <v>1968</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>0.035</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02704</v>
+        <v>2027.04</v>
       </c>
     </row>
     <row r="16">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1.304</v>
+        <v>1304</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
@@ -1736,7 +1736,7 @@
         <v>0.035</v>
       </c>
       <c r="T16" t="n">
-        <v>1.34312</v>
+        <v>1343.12</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1.319</v>
+        <v>1319</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         <v>0.035</v>
       </c>
       <c r="T17" t="n">
-        <v>1.35857</v>
+        <v>1358.57</v>
       </c>
     </row>
     <row r="18">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1.963</v>
+        <v>1963</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -1896,7 +1896,7 @@
         <v>0.035</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02189</v>
+        <v>2021.89</v>
       </c>
     </row>
     <row r="19">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2.279</v>
+        <v>2279</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1976,7 +1976,7 @@
         <v>0.035</v>
       </c>
       <c r="T19" t="n">
-        <v>2.34737</v>
+        <v>2347.37</v>
       </c>
     </row>
     <row r="20">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2.013</v>
+        <v>2013</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>0.035</v>
       </c>
       <c r="T20" t="n">
-        <v>2.07339</v>
+        <v>2073.39</v>
       </c>
     </row>
     <row r="21">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1.672</v>
+        <v>1672</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
@@ -2136,7 +2136,7 @@
         <v>0.035</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72216</v>
+        <v>1722.16</v>
       </c>
     </row>
     <row r="22">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1.887</v>
+        <v>1887</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
@@ -2216,7 +2216,7 @@
         <v>0.035</v>
       </c>
       <c r="T22" t="n">
-        <v>1.94361</v>
+        <v>1943.61</v>
       </c>
     </row>
     <row r="23">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1.521</v>
+        <v>1521</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
@@ -2296,7 +2296,7 @@
         <v>0.035</v>
       </c>
       <c r="T23" t="n">
-        <v>1.56663</v>
+        <v>1566.63</v>
       </c>
     </row>
     <row r="24">
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1.452</v>
+        <v>1452</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
@@ -2376,7 +2376,7 @@
         <v>0.035</v>
       </c>
       <c r="T24" t="n">
-        <v>1.49556</v>
+        <v>1495.56</v>
       </c>
     </row>
     <row r="25">
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1.422</v>
+        <v>1422</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
@@ -2456,7 +2456,7 @@
         <v>0.035</v>
       </c>
       <c r="T25" t="n">
-        <v>1.46466</v>
+        <v>1464.66</v>
       </c>
     </row>
     <row r="26">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1.258</v>
+        <v>1258</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
@@ -2536,7 +2536,7 @@
         <v>0.035</v>
       </c>
       <c r="T26" t="n">
-        <v>1.29574</v>
+        <v>1295.74</v>
       </c>
     </row>
     <row r="27">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1.352</v>
+        <v>1352</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -2616,7 +2616,7 @@
         <v>0.035</v>
       </c>
       <c r="T27" t="n">
-        <v>1.39256</v>
+        <v>1392.56</v>
       </c>
     </row>
     <row r="28">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2.126</v>
+        <v>2126</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
@@ -2696,7 +2696,7 @@
         <v>0.035</v>
       </c>
       <c r="T28" t="n">
-        <v>2.18978</v>
+        <v>2189.78</v>
       </c>
     </row>
     <row r="29">
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1.667</v>
+        <v>1667</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         <v>0.035</v>
       </c>
       <c r="T29" t="n">
-        <v>1.71701</v>
+        <v>1717.01</v>
       </c>
     </row>
     <row r="30">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1.764</v>
+        <v>1764</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2856,7 +2856,7 @@
         <v>0.035</v>
       </c>
       <c r="T30" t="n">
-        <v>1.81692</v>
+        <v>1816.92</v>
       </c>
     </row>
     <row r="31">
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1.612</v>
+        <v>1612</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2936,7 +2936,7 @@
         <v>0.035</v>
       </c>
       <c r="T31" t="n">
-        <v>1.66036</v>
+        <v>1660.36</v>
       </c>
     </row>
     <row r="32">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1.473</v>
+        <v>1473</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
@@ -3016,7 +3016,7 @@
         <v>0.035</v>
       </c>
       <c r="T32" t="n">
-        <v>1.51719</v>
+        <v>1517.19</v>
       </c>
     </row>
     <row r="33">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2.057</v>
+        <v>2057</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>0.035</v>
       </c>
       <c r="T33" t="n">
-        <v>2.11871</v>
+        <v>2118.71</v>
       </c>
     </row>
     <row r="34">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1.674</v>
+        <v>1674</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -3176,7 +3176,7 @@
         <v>0.035</v>
       </c>
       <c r="T34" t="n">
-        <v>1.72422</v>
+        <v>1724.22</v>
       </c>
     </row>
     <row r="35">
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1.985</v>
+        <v>1985</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -3256,7 +3256,7 @@
         <v>0.035</v>
       </c>
       <c r="T35" t="n">
-        <v>2.04455</v>
+        <v>2044.55</v>
       </c>
     </row>
     <row r="36">
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.414</v>
+        <v>1414</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
@@ -3336,7 +3336,7 @@
         <v>0.035</v>
       </c>
       <c r="T36" t="n">
-        <v>1.45642</v>
+        <v>1456.42</v>
       </c>
     </row>
     <row r="37">
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.769</v>
+        <v>1769</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -3416,7 +3416,7 @@
         <v>0.035</v>
       </c>
       <c r="T37" t="n">
-        <v>1.82207</v>
+        <v>1822.07</v>
       </c>
     </row>
     <row r="38">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1.308</v>
+        <v>1308</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
@@ -3496,7 +3496,7 @@
         <v>0.035</v>
       </c>
       <c r="T38" t="n">
-        <v>1.34724</v>
+        <v>1347.24</v>
       </c>
     </row>
     <row r="39">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1.24</v>
+        <v>1240</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
@@ -3576,7 +3576,7 @@
         <v>0.035</v>
       </c>
       <c r="T39" t="n">
-        <v>1.2772</v>
+        <v>1277.2</v>
       </c>
     </row>
     <row r="40">
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1.456</v>
+        <v>1456</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
@@ -3656,7 +3656,7 @@
         <v>0.035</v>
       </c>
       <c r="T40" t="n">
-        <v>1.49968</v>
+        <v>1499.68</v>
       </c>
     </row>
     <row r="41">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1.33</v>
+        <v>1330</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -3736,7 +3736,7 @@
         <v>0.035</v>
       </c>
       <c r="T41" t="n">
-        <v>1.3699</v>
+        <v>1369.9</v>
       </c>
     </row>
     <row r="42">
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2.125</v>
+        <v>2125</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>0.035</v>
       </c>
       <c r="T42" t="n">
-        <v>2.18875</v>
+        <v>2188.75</v>
       </c>
     </row>
     <row r="43">
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1.528</v>
+        <v>1528</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
@@ -3896,7 +3896,7 @@
         <v>0.035</v>
       </c>
       <c r="T43" t="n">
-        <v>1.57384</v>
+        <v>1573.84</v>
       </c>
     </row>
     <row r="44">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1.815</v>
+        <v>1815</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         <v>0.035</v>
       </c>
       <c r="T44" t="n">
-        <v>1.86945</v>
+        <v>1869.45</v>
       </c>
     </row>
     <row r="45">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1.872</v>
+        <v>1872</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -4056,7 +4056,7 @@
         <v>0.035</v>
       </c>
       <c r="T45" t="n">
-        <v>1.92816</v>
+        <v>1928.16</v>
       </c>
     </row>
     <row r="46">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1.413</v>
+        <v>1413</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
@@ -4136,7 +4136,7 @@
         <v>0.035</v>
       </c>
       <c r="T46" t="n">
-        <v>1.45539</v>
+        <v>1455.39</v>
       </c>
     </row>
     <row r="47">
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2.015</v>
+        <v>2015</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
@@ -4216,7 +4216,7 @@
         <v>0.035</v>
       </c>
       <c r="T47" t="n">
-        <v>2.07545</v>
+        <v>2075.45</v>
       </c>
     </row>
     <row r="48">
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1.698</v>
+        <v>1698</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
@@ -4296,7 +4296,7 @@
         <v>0.035</v>
       </c>
       <c r="T48" t="n">
-        <v>1.74894</v>
+        <v>1748.94</v>
       </c>
     </row>
     <row r="49">
@@ -4335,7 +4335,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1.941</v>
+        <v>1941</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
@@ -4376,7 +4376,7 @@
         <v>0.035</v>
       </c>
       <c r="T49" t="n">
-        <v>1.99923</v>
+        <v>1999.23</v>
       </c>
     </row>
     <row r="50">
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1.531</v>
+        <v>1531</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>0.035</v>
       </c>
       <c r="T50" t="n">
-        <v>1.57693</v>
+        <v>1576.93</v>
       </c>
     </row>
     <row r="51">
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2.08</v>
+        <v>2080</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -4536,7 +4536,7 @@
         <v>0.035</v>
       </c>
       <c r="T51" t="n">
-        <v>2.1424</v>
+        <v>2142.4</v>
       </c>
     </row>
     <row r="52">
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1.573</v>
+        <v>1573</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -4616,7 +4616,7 @@
         <v>0.035</v>
       </c>
       <c r="T52" t="n">
-        <v>1.62019</v>
+        <v>1620.19</v>
       </c>
     </row>
     <row r="53">
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2.1</v>
+        <v>2100</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
@@ -4696,7 +4696,7 @@
         <v>0.035</v>
       </c>
       <c r="T53" t="n">
-        <v>2.163</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="54">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1.861</v>
+        <v>1861</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
@@ -4776,7 +4776,7 @@
         <v>0.035</v>
       </c>
       <c r="T54" t="n">
-        <v>1.91683</v>
+        <v>1916.83</v>
       </c>
     </row>
     <row r="55">
@@ -4815,7 +4815,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1.669</v>
+        <v>1669</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -4856,7 +4856,7 @@
         <v>0.035</v>
       </c>
       <c r="T55" t="n">
-        <v>1.71907</v>
+        <v>1719.07</v>
       </c>
     </row>
     <row r="56">
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1.154</v>
+        <v>1154</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
@@ -4936,7 +4936,7 @@
         <v>0.035</v>
       </c>
       <c r="T56" t="n">
-        <v>1.18862</v>
+        <v>1188.62</v>
       </c>
     </row>
     <row r="57">
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1.797</v>
+        <v>1797</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
@@ -5016,7 +5016,7 @@
         <v>0.035</v>
       </c>
       <c r="T57" t="n">
-        <v>1.85091</v>
+        <v>1850.91</v>
       </c>
     </row>
     <row r="58">
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2.149</v>
+        <v>2149</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
@@ -5096,7 +5096,7 @@
         <v>0.035</v>
       </c>
       <c r="T58" t="n">
-        <v>2.21347</v>
+        <v>2213.47</v>
       </c>
     </row>
     <row r="59">
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1.929</v>
+        <v>1929</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
@@ -5176,7 +5176,7 @@
         <v>0.035</v>
       </c>
       <c r="T59" t="n">
-        <v>1.98687</v>
+        <v>1986.87</v>
       </c>
     </row>
     <row r="60">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1.759</v>
+        <v>1759</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
@@ -5256,7 +5256,7 @@
         <v>0.035</v>
       </c>
       <c r="T60" t="n">
-        <v>1.81177</v>
+        <v>1811.77</v>
       </c>
     </row>
     <row r="61">
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1.451</v>
+        <v>1451</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
@@ -5336,7 +5336,7 @@
         <v>0.035</v>
       </c>
       <c r="T61" t="n">
-        <v>1.49453</v>
+        <v>1494.53</v>
       </c>
     </row>
     <row r="62">
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1.811</v>
+        <v>1811</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
@@ -5416,7 +5416,7 @@
         <v>0.035</v>
       </c>
       <c r="T62" t="n">
-        <v>1.86533</v>
+        <v>1865.33</v>
       </c>
     </row>
     <row r="63">
@@ -5455,7 +5455,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1.493</v>
+        <v>1493</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
@@ -5496,7 +5496,7 @@
         <v>0.035</v>
       </c>
       <c r="T63" t="n">
-        <v>1.53779</v>
+        <v>1537.79</v>
       </c>
     </row>
     <row r="64">
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1.413</v>
+        <v>1413</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
@@ -5576,7 +5576,7 @@
         <v>0.035</v>
       </c>
       <c r="T64" t="n">
-        <v>1.45539</v>
+        <v>1455.39</v>
       </c>
     </row>
     <row r="65">
@@ -5615,7 +5615,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
@@ -5656,7 +5656,7 @@
         <v>0.035</v>
       </c>
       <c r="T65" t="n">
-        <v>1.236</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="66">
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1.97</v>
+        <v>1970</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
@@ -5736,7 +5736,7 @@
         <v>0.035</v>
       </c>
       <c r="T66" t="n">
-        <v>2.0291</v>
+        <v>2029.1</v>
       </c>
     </row>
     <row r="67">
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1.254</v>
+        <v>1254</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -5816,7 +5816,7 @@
         <v>0.035</v>
       </c>
       <c r="T67" t="n">
-        <v>1.29162</v>
+        <v>1291.62</v>
       </c>
     </row>
     <row r="68">
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2.013</v>
+        <v>2013</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
@@ -5896,7 +5896,7 @@
         <v>0.035</v>
       </c>
       <c r="T68" t="n">
-        <v>2.07339</v>
+        <v>2073.39</v>
       </c>
     </row>
     <row r="69">
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1.677</v>
+        <v>1677</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
@@ -5976,7 +5976,7 @@
         <v>0.035</v>
       </c>
       <c r="T69" t="n">
-        <v>1.72731</v>
+        <v>1727.31</v>
       </c>
     </row>
     <row r="70">
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1.893</v>
+        <v>1893</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
@@ -6056,7 +6056,7 @@
         <v>0.035</v>
       </c>
       <c r="T70" t="n">
-        <v>1.94979</v>
+        <v>1949.79</v>
       </c>
     </row>
     <row r="71">
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2.135</v>
+        <v>2135</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
@@ -6136,7 +6136,7 @@
         <v>0.035</v>
       </c>
       <c r="T71" t="n">
-        <v>2.19905</v>
+        <v>2199.05</v>
       </c>
     </row>
     <row r="72">
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1.972</v>
+        <v>1972</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -6216,7 +6216,7 @@
         <v>0.035</v>
       </c>
       <c r="T72" t="n">
-        <v>2.03116</v>
+        <v>2031.16</v>
       </c>
     </row>
     <row r="73">
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1.274</v>
+        <v>1274</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
@@ -6296,7 +6296,7 @@
         <v>0.035</v>
       </c>
       <c r="T73" t="n">
-        <v>1.31222</v>
+        <v>1312.22</v>
       </c>
     </row>
     <row r="74">
@@ -6335,7 +6335,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1.493</v>
+        <v>1493</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -6376,7 +6376,7 @@
         <v>0.035</v>
       </c>
       <c r="T74" t="n">
-        <v>1.53779</v>
+        <v>1537.79</v>
       </c>
     </row>
     <row r="75">
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2.091</v>
+        <v>2091</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
@@ -6456,7 +6456,7 @@
         <v>0.035</v>
       </c>
       <c r="T75" t="n">
-        <v>2.15373</v>
+        <v>2153.73</v>
       </c>
     </row>
     <row r="76">
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2.303</v>
+        <v>2303</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -6536,7 +6536,7 @@
         <v>0.035</v>
       </c>
       <c r="T76" t="n">
-        <v>2.37209</v>
+        <v>2372.09</v>
       </c>
     </row>
     <row r="77">
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1.545</v>
+        <v>1545</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -6616,7 +6616,7 @@
         <v>0.035</v>
       </c>
       <c r="T77" t="n">
-        <v>1.59135</v>
+        <v>1591.35</v>
       </c>
     </row>
     <row r="78">
@@ -6655,7 +6655,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1.503</v>
+        <v>1503</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -6696,7 +6696,7 @@
         <v>0.035</v>
       </c>
       <c r="T78" t="n">
-        <v>1.54809</v>
+        <v>1548.09</v>
       </c>
     </row>
     <row r="79">
@@ -6735,7 +6735,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2.14</v>
+        <v>2140</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
@@ -6776,7 +6776,7 @@
         <v>0.035</v>
       </c>
       <c r="T79" t="n">
-        <v>2.2042</v>
+        <v>2204.2</v>
       </c>
     </row>
     <row r="80">
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2.222</v>
+        <v>2222</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
@@ -6856,7 +6856,7 @@
         <v>0.035</v>
       </c>
       <c r="T80" t="n">
-        <v>2.28866</v>
+        <v>2288.66</v>
       </c>
     </row>
     <row r="81">
@@ -6895,7 +6895,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1.45</v>
+        <v>1450</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
@@ -6936,7 +6936,7 @@
         <v>0.035</v>
       </c>
       <c r="T81" t="n">
-        <v>1.4935</v>
+        <v>1493.5</v>
       </c>
     </row>
     <row r="82">
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1.557</v>
+        <v>1557</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -7016,7 +7016,7 @@
         <v>0.035</v>
       </c>
       <c r="T82" t="n">
-        <v>1.60371</v>
+        <v>1603.71</v>
       </c>
     </row>
     <row r="83">
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1.84</v>
+        <v>1840</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -7096,7 +7096,7 @@
         <v>0.035</v>
       </c>
       <c r="T83" t="n">
-        <v>1.8952</v>
+        <v>1895.2</v>
       </c>
     </row>
     <row r="84">
@@ -7135,7 +7135,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1.398</v>
+        <v>1398</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -7176,7 +7176,7 @@
         <v>0.035</v>
       </c>
       <c r="T84" t="n">
-        <v>1.43994</v>
+        <v>1439.94</v>
       </c>
     </row>
     <row r="85">
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1.85</v>
+        <v>1850</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -7256,7 +7256,7 @@
         <v>0.035</v>
       </c>
       <c r="T85" t="n">
-        <v>1.9055</v>
+        <v>1905.5</v>
       </c>
     </row>
     <row r="86">
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2.1</v>
+        <v>2100</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
@@ -7336,7 +7336,7 @@
         <v>0.035</v>
       </c>
       <c r="T86" t="n">
-        <v>2.163</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="87">
@@ -7375,7 +7375,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2.023</v>
+        <v>2023</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -7416,7 +7416,7 @@
         <v>0.035</v>
       </c>
       <c r="T87" t="n">
-        <v>2.08369</v>
+        <v>2083.69</v>
       </c>
     </row>
     <row r="88">
@@ -7455,7 +7455,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1.201</v>
+        <v>1201</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -7496,7 +7496,7 @@
         <v>0.035</v>
       </c>
       <c r="T88" t="n">
-        <v>1.23703</v>
+        <v>1237.03</v>
       </c>
     </row>
     <row r="89">
@@ -7535,7 +7535,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1.461</v>
+        <v>1461</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
@@ -7576,7 +7576,7 @@
         <v>0.035</v>
       </c>
       <c r="T89" t="n">
-        <v>1.50483</v>
+        <v>1504.83</v>
       </c>
     </row>
     <row r="90">
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2.282</v>
+        <v>2282</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
@@ -7656,7 +7656,7 @@
         <v>0.035</v>
       </c>
       <c r="T90" t="n">
-        <v>2.35046</v>
+        <v>2350.46</v>
       </c>
     </row>
     <row r="91">
@@ -7695,7 +7695,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1.961</v>
+        <v>1961</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
@@ -7736,7 +7736,7 @@
         <v>0.035</v>
       </c>
       <c r="T91" t="n">
-        <v>2.01983</v>
+        <v>2019.83</v>
       </c>
     </row>
     <row r="92">
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1.429</v>
+        <v>1429</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -7816,7 +7816,7 @@
         <v>0.035</v>
       </c>
       <c r="T92" t="n">
-        <v>1.47187</v>
+        <v>1471.87</v>
       </c>
     </row>
     <row r="93">
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1.185</v>
+        <v>1185</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
@@ -7896,7 +7896,7 @@
         <v>0.035</v>
       </c>
       <c r="T93" t="n">
-        <v>1.22055</v>
+        <v>1220.55</v>
       </c>
     </row>
     <row r="94">
@@ -7935,7 +7935,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1.522</v>
+        <v>1522</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -7976,7 +7976,7 @@
         <v>0.035</v>
       </c>
       <c r="T94" t="n">
-        <v>1.56766</v>
+        <v>1567.66</v>
       </c>
     </row>
     <row r="95">
@@ -8015,7 +8015,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1.35</v>
+        <v>1350</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -8056,7 +8056,7 @@
         <v>0.035</v>
       </c>
       <c r="T95" t="n">
-        <v>1.3905</v>
+        <v>1390.5</v>
       </c>
     </row>
     <row r="96">
@@ -8095,7 +8095,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2.04</v>
+        <v>2040</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
@@ -8136,7 +8136,7 @@
         <v>0.035</v>
       </c>
       <c r="T96" t="n">
-        <v>2.1012</v>
+        <v>2101.2</v>
       </c>
     </row>
     <row r="97">
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2.303</v>
+        <v>2303</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
@@ -8216,7 +8216,7 @@
         <v>0.035</v>
       </c>
       <c r="T97" t="n">
-        <v>2.37209</v>
+        <v>2372.09</v>
       </c>
     </row>
     <row r="98">
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1.495</v>
+        <v>1495</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
@@ -8296,7 +8296,7 @@
         <v>0.035</v>
       </c>
       <c r="T98" t="n">
-        <v>1.53985</v>
+        <v>1539.85</v>
       </c>
     </row>
     <row r="99">
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1.317</v>
+        <v>1317</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -8376,7 +8376,7 @@
         <v>0.035</v>
       </c>
       <c r="T99" t="n">
-        <v>1.35651</v>
+        <v>1356.51</v>
       </c>
     </row>
     <row r="100">
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1.367</v>
+        <v>1367</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -8456,7 +8456,7 @@
         <v>0.035</v>
       </c>
       <c r="T100" t="n">
-        <v>1.40801</v>
+        <v>1408.01</v>
       </c>
     </row>
     <row r="101">
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1.299</v>
+        <v>1299</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -8536,7 +8536,7 @@
         <v>0.035</v>
       </c>
       <c r="T101" t="n">
-        <v>1.33797</v>
+        <v>1337.97</v>
       </c>
     </row>
     <row r="102">
@@ -8575,7 +8575,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2.194</v>
+        <v>2194</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
@@ -8616,7 +8616,7 @@
         <v>0.035</v>
       </c>
       <c r="T102" t="n">
-        <v>2.25982</v>
+        <v>2259.82</v>
       </c>
     </row>
     <row r="103">
@@ -8655,7 +8655,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1.912</v>
+        <v>1912</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -8696,7 +8696,7 @@
         <v>0.035</v>
       </c>
       <c r="T103" t="n">
-        <v>1.96936</v>
+        <v>1969.36</v>
       </c>
     </row>
     <row r="104">
@@ -8735,7 +8735,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1.886</v>
+        <v>1886</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -8776,7 +8776,7 @@
         <v>0.035</v>
       </c>
       <c r="T104" t="n">
-        <v>1.94258</v>
+        <v>1942.58</v>
       </c>
     </row>
     <row r="105">
@@ -8815,7 +8815,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1.803</v>
+        <v>1803</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
@@ -8856,7 +8856,7 @@
         <v>0.035</v>
       </c>
       <c r="T105" t="n">
-        <v>1.85709</v>
+        <v>1857.09</v>
       </c>
     </row>
     <row r="106">
@@ -8895,7 +8895,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1.853</v>
+        <v>1853</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
@@ -8936,7 +8936,7 @@
         <v>0.035</v>
       </c>
       <c r="T106" t="n">
-        <v>1.90859</v>
+        <v>1908.59</v>
       </c>
     </row>
     <row r="107">
@@ -8975,7 +8975,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1.218</v>
+        <v>1218</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
@@ -9016,7 +9016,7 @@
         <v>0.035</v>
       </c>
       <c r="T107" t="n">
-        <v>1.25454</v>
+        <v>1254.54</v>
       </c>
     </row>
     <row r="108">
@@ -9055,7 +9055,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1.846</v>
+        <v>1846</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
@@ -9096,7 +9096,7 @@
         <v>0.035</v>
       </c>
       <c r="T108" t="n">
-        <v>1.90138</v>
+        <v>1901.38</v>
       </c>
     </row>
     <row r="109">
@@ -9135,7 +9135,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1.767</v>
+        <v>1767</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
@@ -9176,7 +9176,7 @@
         <v>0.035</v>
       </c>
       <c r="T109" t="n">
-        <v>1.82001</v>
+        <v>1820.01</v>
       </c>
     </row>
     <row r="110">
@@ -9215,7 +9215,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1.615</v>
+        <v>1615</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
@@ -9256,7 +9256,7 @@
         <v>0.035</v>
       </c>
       <c r="T110" t="n">
-        <v>1.66345</v>
+        <v>1663.45</v>
       </c>
     </row>
     <row r="111">
@@ -9295,7 +9295,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1.279</v>
+        <v>1279</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
@@ -9336,7 +9336,7 @@
         <v>0.035</v>
       </c>
       <c r="T111" t="n">
-        <v>1.31737</v>
+        <v>1317.37</v>
       </c>
     </row>
     <row r="112">
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1.627</v>
+        <v>1627</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -9416,7 +9416,7 @@
         <v>0.035</v>
       </c>
       <c r="T112" t="n">
-        <v>1.67581</v>
+        <v>1675.81</v>
       </c>
     </row>
     <row r="113">
@@ -9455,7 +9455,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1.179</v>
+        <v>1179</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -9496,7 +9496,7 @@
         <v>0.035</v>
       </c>
       <c r="T113" t="n">
-        <v>1.21437</v>
+        <v>1214.37</v>
       </c>
     </row>
     <row r="114">
@@ -9535,7 +9535,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1.962</v>
+        <v>1962</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -9576,7 +9576,7 @@
         <v>0.035</v>
       </c>
       <c r="T114" t="n">
-        <v>2.02086</v>
+        <v>2020.86</v>
       </c>
     </row>
     <row r="115">
@@ -9615,7 +9615,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1.378</v>
+        <v>1378</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -9656,7 +9656,7 @@
         <v>0.035</v>
       </c>
       <c r="T115" t="n">
-        <v>1.41934</v>
+        <v>1419.34</v>
       </c>
     </row>
     <row r="116">
@@ -9695,7 +9695,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1.742</v>
+        <v>1742</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -9736,7 +9736,7 @@
         <v>0.035</v>
       </c>
       <c r="T116" t="n">
-        <v>1.79426</v>
+        <v>1794.26</v>
       </c>
     </row>
     <row r="117">
@@ -9775,7 +9775,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1.257</v>
+        <v>1257</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
@@ -9816,7 +9816,7 @@
         <v>0.035</v>
       </c>
       <c r="T117" t="n">
-        <v>1.29471</v>
+        <v>1294.71</v>
       </c>
     </row>
     <row r="118">
@@ -9855,7 +9855,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1.382</v>
+        <v>1382</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
@@ -9896,7 +9896,7 @@
         <v>0.035</v>
       </c>
       <c r="T118" t="n">
-        <v>1.42346</v>
+        <v>1423.46</v>
       </c>
     </row>
     <row r="119">
@@ -9935,7 +9935,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1.385</v>
+        <v>1385</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>0.035</v>
       </c>
       <c r="T119" t="n">
-        <v>1.42655</v>
+        <v>1426.55</v>
       </c>
     </row>
     <row r="120">
@@ -10015,7 +10015,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1.626</v>
+        <v>1626</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -10056,7 +10056,7 @@
         <v>0.035</v>
       </c>
       <c r="T120" t="n">
-        <v>1.67478</v>
+        <v>1674.78</v>
       </c>
     </row>
     <row r="121">
@@ -10095,7 +10095,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1.415</v>
+        <v>1415</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
@@ -10136,7 +10136,7 @@
         <v>0.035</v>
       </c>
       <c r="T121" t="n">
-        <v>1.45745</v>
+        <v>1457.45</v>
       </c>
     </row>
     <row r="122">
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1.561</v>
+        <v>1561</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -10216,7 +10216,7 @@
         <v>0.035</v>
       </c>
       <c r="T122" t="n">
-        <v>1.60783</v>
+        <v>1607.83</v>
       </c>
     </row>
     <row r="123">
@@ -10255,7 +10255,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1.666</v>
+        <v>1666</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
@@ -10296,7 +10296,7 @@
         <v>0.035</v>
       </c>
       <c r="T123" t="n">
-        <v>1.71598</v>
+        <v>1715.98</v>
       </c>
     </row>
     <row r="124">
@@ -10335,7 +10335,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1.619</v>
+        <v>1619</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -10376,7 +10376,7 @@
         <v>0.035</v>
       </c>
       <c r="T124" t="n">
-        <v>1.66757</v>
+        <v>1667.57</v>
       </c>
     </row>
     <row r="125">
@@ -10415,7 +10415,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1.334</v>
+        <v>1334</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -10456,7 +10456,7 @@
         <v>0.035</v>
       </c>
       <c r="T125" t="n">
-        <v>1.37402</v>
+        <v>1374.02</v>
       </c>
     </row>
     <row r="126">
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>2.002</v>
+        <v>2002</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
@@ -10536,7 +10536,7 @@
         <v>0.035</v>
       </c>
       <c r="T126" t="n">
-        <v>2.06206</v>
+        <v>2062.06</v>
       </c>
     </row>
     <row r="127">
@@ -10575,7 +10575,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2.16</v>
+        <v>2160</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -10616,7 +10616,7 @@
         <v>0.035</v>
       </c>
       <c r="T127" t="n">
-        <v>2.2248</v>
+        <v>2224.8</v>
       </c>
     </row>
     <row r="128">
@@ -10655,7 +10655,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1.618</v>
+        <v>1618</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
@@ -10696,7 +10696,7 @@
         <v>0.035</v>
       </c>
       <c r="T128" t="n">
-        <v>1.66654</v>
+        <v>1666.54</v>
       </c>
     </row>
     <row r="129">
@@ -10735,7 +10735,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1.764</v>
+        <v>1764</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
@@ -10776,7 +10776,7 @@
         <v>0.035</v>
       </c>
       <c r="T129" t="n">
-        <v>1.81692</v>
+        <v>1816.92</v>
       </c>
     </row>
     <row r="130">
@@ -10815,7 +10815,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1.336</v>
+        <v>1336</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -10856,7 +10856,7 @@
         <v>0.035</v>
       </c>
       <c r="T130" t="n">
-        <v>1.37608</v>
+        <v>1376.08</v>
       </c>
     </row>
     <row r="131">
@@ -10895,7 +10895,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1.845</v>
+        <v>1845</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
@@ -10936,7 +10936,7 @@
         <v>0.035</v>
       </c>
       <c r="T131" t="n">
-        <v>1.90035</v>
+        <v>1900.35</v>
       </c>
     </row>
     <row r="132">
@@ -10975,7 +10975,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1.372</v>
+        <v>1372</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -11016,7 +11016,7 @@
         <v>0.035</v>
       </c>
       <c r="T132" t="n">
-        <v>1.41316</v>
+        <v>1413.16</v>
       </c>
     </row>
     <row r="133">
@@ -11055,7 +11055,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1.291</v>
+        <v>1291</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -11096,7 +11096,7 @@
         <v>0.035</v>
       </c>
       <c r="T133" t="n">
-        <v>1.32973</v>
+        <v>1329.73</v>
       </c>
     </row>
     <row r="134">
@@ -11135,7 +11135,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1.521</v>
+        <v>1521</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -11176,7 +11176,7 @@
         <v>0.035</v>
       </c>
       <c r="T134" t="n">
-        <v>1.56663</v>
+        <v>1566.63</v>
       </c>
     </row>
     <row r="135">
@@ -11215,7 +11215,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1.76</v>
+        <v>1760</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -11256,7 +11256,7 @@
         <v>0.035</v>
       </c>
       <c r="T135" t="n">
-        <v>1.8128</v>
+        <v>1812.8</v>
       </c>
     </row>
     <row r="136">
@@ -11295,7 +11295,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1.292</v>
+        <v>1292</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -11336,7 +11336,7 @@
         <v>0.035</v>
       </c>
       <c r="T136" t="n">
-        <v>1.33076</v>
+        <v>1330.76</v>
       </c>
     </row>
     <row r="137">
@@ -11375,7 +11375,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1.672</v>
+        <v>1672</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
@@ -11416,7 +11416,7 @@
         <v>0.035</v>
       </c>
       <c r="T137" t="n">
-        <v>1.72216</v>
+        <v>1722.16</v>
       </c>
     </row>
     <row r="138">
@@ -11455,7 +11455,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1.431</v>
+        <v>1431</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
@@ -11496,7 +11496,7 @@
         <v>0.035</v>
       </c>
       <c r="T138" t="n">
-        <v>1.47393</v>
+        <v>1473.93</v>
       </c>
     </row>
     <row r="139">
@@ -11535,7 +11535,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1.316</v>
+        <v>1316</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
@@ -11576,7 +11576,7 @@
         <v>0.035</v>
       </c>
       <c r="T139" t="n">
-        <v>1.35548</v>
+        <v>1355.48</v>
       </c>
     </row>
     <row r="140">
@@ -11615,7 +11615,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1.506</v>
+        <v>1506</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
@@ -11656,7 +11656,7 @@
         <v>0.035</v>
       </c>
       <c r="T140" t="n">
-        <v>1.55118</v>
+        <v>1551.18</v>
       </c>
     </row>
     <row r="141">
@@ -11695,7 +11695,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>2.067</v>
+        <v>2067</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
@@ -11736,7 +11736,7 @@
         <v>0.035</v>
       </c>
       <c r="T141" t="n">
-        <v>2.12901</v>
+        <v>2129.01</v>
       </c>
     </row>
     <row r="142">
@@ -11775,7 +11775,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1.592</v>
+        <v>1592</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -11816,7 +11816,7 @@
         <v>0.035</v>
       </c>
       <c r="T142" t="n">
-        <v>1.63976</v>
+        <v>1639.76</v>
       </c>
     </row>
     <row r="143">
@@ -11855,7 +11855,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1.691</v>
+        <v>1691</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -11896,7 +11896,7 @@
         <v>0.035</v>
       </c>
       <c r="T143" t="n">
-        <v>1.74173</v>
+        <v>1741.73</v>
       </c>
     </row>
     <row r="144">
@@ -11935,7 +11935,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1.315</v>
+        <v>1315</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
@@ -11976,7 +11976,7 @@
         <v>0.035</v>
       </c>
       <c r="T144" t="n">
-        <v>1.35445</v>
+        <v>1354.45</v>
       </c>
     </row>
     <row r="145">
@@ -12015,7 +12015,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1.871</v>
+        <v>1871</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -12056,7 +12056,7 @@
         <v>0.035</v>
       </c>
       <c r="T145" t="n">
-        <v>1.92713</v>
+        <v>1927.13</v>
       </c>
     </row>
     <row r="146">
@@ -12095,7 +12095,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1.297</v>
+        <v>1297</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
@@ -12136,7 +12136,7 @@
         <v>0.035</v>
       </c>
       <c r="T146" t="n">
-        <v>1.33591</v>
+        <v>1335.91</v>
       </c>
     </row>
     <row r="147">
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1.147</v>
+        <v>1147</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -12216,7 +12216,7 @@
         <v>0.035</v>
       </c>
       <c r="T147" t="n">
-        <v>1.18141</v>
+        <v>1181.41</v>
       </c>
     </row>
     <row r="148">
@@ -12255,7 +12255,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1.635</v>
+        <v>1635</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
@@ -12296,7 +12296,7 @@
         <v>0.035</v>
       </c>
       <c r="T148" t="n">
-        <v>1.68405</v>
+        <v>1684.05</v>
       </c>
     </row>
     <row r="149">
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1.482</v>
+        <v>1482</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
@@ -12376,7 +12376,7 @@
         <v>0.035</v>
       </c>
       <c r="T149" t="n">
-        <v>1.52646</v>
+        <v>1526.46</v>
       </c>
     </row>
     <row r="150">
@@ -12415,7 +12415,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1.37</v>
+        <v>1370</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -12456,7 +12456,7 @@
         <v>0.035</v>
       </c>
       <c r="T150" t="n">
-        <v>1.4111</v>
+        <v>1411.1</v>
       </c>
     </row>
     <row r="151">
@@ -12495,7 +12495,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>2.042</v>
+        <v>2042</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
@@ -12536,7 +12536,7 @@
         <v>0.035</v>
       </c>
       <c r="T151" t="n">
-        <v>2.10326</v>
+        <v>2103.26</v>
       </c>
     </row>
     <row r="152">
@@ -12575,7 +12575,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1.922</v>
+        <v>1922</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
@@ -12616,7 +12616,7 @@
         <v>0.035</v>
       </c>
       <c r="T152" t="n">
-        <v>1.97966</v>
+        <v>1979.66</v>
       </c>
     </row>
     <row r="153">
@@ -12655,7 +12655,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1.354</v>
+        <v>1354</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
@@ -12696,7 +12696,7 @@
         <v>0.035</v>
       </c>
       <c r="T153" t="n">
-        <v>1.39462</v>
+        <v>1394.62</v>
       </c>
     </row>
     <row r="154">
@@ -12735,7 +12735,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1.454</v>
+        <v>1454</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
@@ -12776,7 +12776,7 @@
         <v>0.035</v>
       </c>
       <c r="T154" t="n">
-        <v>1.49762</v>
+        <v>1497.62</v>
       </c>
     </row>
     <row r="155">
@@ -12815,7 +12815,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1.765</v>
+        <v>1765</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
@@ -12856,7 +12856,7 @@
         <v>0.035</v>
       </c>
       <c r="T155" t="n">
-        <v>1.81795</v>
+        <v>1817.95</v>
       </c>
     </row>
     <row r="156">
@@ -12895,7 +12895,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1.548</v>
+        <v>1548</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -12936,7 +12936,7 @@
         <v>0.035</v>
       </c>
       <c r="T156" t="n">
-        <v>1.59444</v>
+        <v>1594.44</v>
       </c>
     </row>
     <row r="157">
@@ -12975,7 +12975,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1.786</v>
+        <v>1786</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -13016,7 +13016,7 @@
         <v>0.035</v>
       </c>
       <c r="T157" t="n">
-        <v>1.83958</v>
+        <v>1839.58</v>
       </c>
     </row>
     <row r="158">
@@ -13055,7 +13055,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>2.238</v>
+        <v>2238</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -13096,7 +13096,7 @@
         <v>0.035</v>
       </c>
       <c r="T158" t="n">
-        <v>2.30514</v>
+        <v>2305.14</v>
       </c>
     </row>
     <row r="159">
@@ -13135,7 +13135,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>1.569</v>
+        <v>1569</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -13176,7 +13176,7 @@
         <v>0.035</v>
       </c>
       <c r="T159" t="n">
-        <v>1.61607</v>
+        <v>1616.07</v>
       </c>
     </row>
     <row r="160">
@@ -13215,7 +13215,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>1.281</v>
+        <v>1281</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
@@ -13256,7 +13256,7 @@
         <v>0.035</v>
       </c>
       <c r="T160" t="n">
-        <v>1.31943</v>
+        <v>1319.43</v>
       </c>
     </row>
     <row r="161">
@@ -13295,7 +13295,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>1.785</v>
+        <v>1785</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
@@ -13336,7 +13336,7 @@
         <v>0.035</v>
       </c>
       <c r="T161" t="n">
-        <v>1.83855</v>
+        <v>1838.55</v>
       </c>
     </row>
     <row r="162">
@@ -13375,7 +13375,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>1.292</v>
+        <v>1292</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
@@ -13416,7 +13416,7 @@
         <v>0.035</v>
       </c>
       <c r="T162" t="n">
-        <v>1.33076</v>
+        <v>1330.76</v>
       </c>
     </row>
     <row r="163">
@@ -13455,7 +13455,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1.745</v>
+        <v>1745</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
@@ -13496,7 +13496,7 @@
         <v>0.035</v>
       </c>
       <c r="T163" t="n">
-        <v>1.79735</v>
+        <v>1797.35</v>
       </c>
     </row>
     <row r="164">
@@ -13535,7 +13535,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1.412</v>
+        <v>1412</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
@@ -13576,7 +13576,7 @@
         <v>0.035</v>
       </c>
       <c r="T164" t="n">
-        <v>1.45436</v>
+        <v>1454.36</v>
       </c>
     </row>
     <row r="165">
@@ -13615,7 +13615,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>1.992</v>
+        <v>1992</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
@@ -13656,7 +13656,7 @@
         <v>0.035</v>
       </c>
       <c r="T165" t="n">
-        <v>2.05176</v>
+        <v>2051.76</v>
       </c>
     </row>
     <row r="166">
@@ -13695,7 +13695,7 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>1.181</v>
+        <v>1181</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
@@ -13736,7 +13736,7 @@
         <v>0.035</v>
       </c>
       <c r="T166" t="n">
-        <v>1.21643</v>
+        <v>1216.43</v>
       </c>
     </row>
     <row r="167">
@@ -13775,7 +13775,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>1.653</v>
+        <v>1653</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -13816,7 +13816,7 @@
         <v>0.035</v>
       </c>
       <c r="T167" t="n">
-        <v>1.70259</v>
+        <v>1702.59</v>
       </c>
     </row>
     <row r="168">
@@ -13855,7 +13855,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>1.27</v>
+        <v>1270</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
@@ -13896,7 +13896,7 @@
         <v>0.035</v>
       </c>
       <c r="T168" t="n">
-        <v>1.3081</v>
+        <v>1308.1</v>
       </c>
     </row>
     <row r="169">
@@ -13935,7 +13935,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>2.033</v>
+        <v>2033</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
@@ -13976,7 +13976,7 @@
         <v>0.035</v>
       </c>
       <c r="T169" t="n">
-        <v>2.09399</v>
+        <v>2093.99</v>
       </c>
     </row>
     <row r="170">
@@ -14015,7 +14015,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>1.465</v>
+        <v>1465</v>
       </c>
       <c r="J170" t="n">
         <v>1</v>
@@ -14056,7 +14056,7 @@
         <v>0.035</v>
       </c>
       <c r="T170" t="n">
-        <v>1.50895</v>
+        <v>1508.95</v>
       </c>
     </row>
     <row r="171">
@@ -14095,7 +14095,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>1.643</v>
+        <v>1643</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -14136,7 +14136,7 @@
         <v>0.035</v>
       </c>
       <c r="T171" t="n">
-        <v>1.69229</v>
+        <v>1692.29</v>
       </c>
     </row>
     <row r="172">
@@ -14175,7 +14175,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>1.964</v>
+        <v>1964</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
@@ -14216,7 +14216,7 @@
         <v>0.035</v>
       </c>
       <c r="T172" t="n">
-        <v>2.02292</v>
+        <v>2022.92</v>
       </c>
     </row>
     <row r="173">
@@ -14255,7 +14255,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>1.582</v>
+        <v>1582</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
@@ -14296,7 +14296,7 @@
         <v>0.035</v>
       </c>
       <c r="T173" t="n">
-        <v>1.62946</v>
+        <v>1629.46</v>
       </c>
     </row>
     <row r="174">
@@ -14335,7 +14335,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1.524</v>
+        <v>1524</v>
       </c>
       <c r="J174" t="n">
         <v>1</v>
@@ -14376,7 +14376,7 @@
         <v>0.035</v>
       </c>
       <c r="T174" t="n">
-        <v>1.56972</v>
+        <v>1569.72</v>
       </c>
     </row>
     <row r="175">
@@ -14415,7 +14415,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1.441</v>
+        <v>1441</v>
       </c>
       <c r="J175" t="n">
         <v>1</v>
@@ -14456,7 +14456,7 @@
         <v>0.035</v>
       </c>
       <c r="T175" t="n">
-        <v>1.48423</v>
+        <v>1484.23</v>
       </c>
     </row>
     <row r="176">
@@ -14495,7 +14495,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1.908</v>
+        <v>1908</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
@@ -14536,7 +14536,7 @@
         <v>0.035</v>
       </c>
       <c r="T176" t="n">
-        <v>1.96524</v>
+        <v>1965.24</v>
       </c>
     </row>
     <row r="177">
@@ -14575,7 +14575,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1.358</v>
+        <v>1358</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
@@ -14616,7 +14616,7 @@
         <v>0.035</v>
       </c>
       <c r="T177" t="n">
-        <v>1.39874</v>
+        <v>1398.74</v>
       </c>
     </row>
     <row r="178">
@@ -14655,7 +14655,7 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>1.22</v>
+        <v>1220</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
@@ -14696,7 +14696,7 @@
         <v>0.035</v>
       </c>
       <c r="T178" t="n">
-        <v>1.2566</v>
+        <v>1256.6</v>
       </c>
     </row>
     <row r="179">
@@ -14735,7 +14735,7 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>1.587</v>
+        <v>1587</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
@@ -14776,7 +14776,7 @@
         <v>0.035</v>
       </c>
       <c r="T179" t="n">
-        <v>1.63461</v>
+        <v>1634.61</v>
       </c>
     </row>
     <row r="180">
@@ -14815,7 +14815,7 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>2.09</v>
+        <v>2090</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
@@ -14856,7 +14856,7 @@
         <v>0.035</v>
       </c>
       <c r="T180" t="n">
-        <v>2.1527</v>
+        <v>2152.7</v>
       </c>
     </row>
     <row r="181">
@@ -14895,7 +14895,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>1.66</v>
+        <v>1660</v>
       </c>
       <c r="J181" t="n">
         <v>1</v>
@@ -14936,7 +14936,7 @@
         <v>0.035</v>
       </c>
       <c r="T181" t="n">
-        <v>1.7098</v>
+        <v>1709.8</v>
       </c>
     </row>
     <row r="182">
@@ -14975,7 +14975,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>1.334</v>
+        <v>1334</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
@@ -15016,7 +15016,7 @@
         <v>0.035</v>
       </c>
       <c r="T182" t="n">
-        <v>1.37402</v>
+        <v>1374.02</v>
       </c>
     </row>
     <row r="183">
@@ -15055,7 +15055,7 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>1.698</v>
+        <v>1698</v>
       </c>
       <c r="J183" t="n">
         <v>1</v>
@@ -15096,7 +15096,7 @@
         <v>0.035</v>
       </c>
       <c r="T183" t="n">
-        <v>1.74894</v>
+        <v>1748.94</v>
       </c>
     </row>
     <row r="184">
@@ -15135,7 +15135,7 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1.178</v>
+        <v>1178</v>
       </c>
       <c r="J184" t="n">
         <v>1</v>
@@ -15176,7 +15176,7 @@
         <v>0.035</v>
       </c>
       <c r="T184" t="n">
-        <v>1.21334</v>
+        <v>1213.34</v>
       </c>
     </row>
     <row r="185">
@@ -15215,7 +15215,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>1.438</v>
+        <v>1438</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
@@ -15256,7 +15256,7 @@
         <v>0.035</v>
       </c>
       <c r="T185" t="n">
-        <v>1.48114</v>
+        <v>1481.14</v>
       </c>
     </row>
     <row r="186">
@@ -15295,7 +15295,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>1.828</v>
+        <v>1828</v>
       </c>
       <c r="J186" t="n">
         <v>1</v>
@@ -15336,7 +15336,7 @@
         <v>0.035</v>
       </c>
       <c r="T186" t="n">
-        <v>1.88284</v>
+        <v>1882.84</v>
       </c>
     </row>
     <row r="187">
@@ -15375,7 +15375,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>1.598</v>
+        <v>1598</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
@@ -15416,7 +15416,7 @@
         <v>0.035</v>
       </c>
       <c r="T187" t="n">
-        <v>1.64594</v>
+        <v>1645.94</v>
       </c>
     </row>
     <row r="188">
@@ -15455,7 +15455,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>1.789</v>
+        <v>1789</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -15496,7 +15496,7 @@
         <v>0.035</v>
       </c>
       <c r="T188" t="n">
-        <v>1.84267</v>
+        <v>1842.67</v>
       </c>
     </row>
     <row r="189">
@@ -15535,7 +15535,7 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>1.303</v>
+        <v>1303</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
@@ -15576,7 +15576,7 @@
         <v>0.035</v>
       </c>
       <c r="T189" t="n">
-        <v>1.34209</v>
+        <v>1342.09</v>
       </c>
     </row>
     <row r="190">
@@ -15615,7 +15615,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>2.132</v>
+        <v>2132</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
@@ -15656,7 +15656,7 @@
         <v>0.035</v>
       </c>
       <c r="T190" t="n">
-        <v>2.19596</v>
+        <v>2195.96</v>
       </c>
     </row>
     <row r="191">
@@ -15695,7 +15695,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>2.127</v>
+        <v>2127</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
@@ -15736,7 +15736,7 @@
         <v>0.035</v>
       </c>
       <c r="T191" t="n">
-        <v>2.19081</v>
+        <v>2190.81</v>
       </c>
     </row>
     <row r="192">
@@ -15775,7 +15775,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>1.412</v>
+        <v>1412</v>
       </c>
       <c r="J192" t="n">
         <v>1</v>
@@ -15816,7 +15816,7 @@
         <v>0.035</v>
       </c>
       <c r="T192" t="n">
-        <v>1.45436</v>
+        <v>1454.36</v>
       </c>
     </row>
     <row r="193">
@@ -15855,7 +15855,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>2.176</v>
+        <v>2176</v>
       </c>
       <c r="J193" t="n">
         <v>1</v>
@@ -15896,7 +15896,7 @@
         <v>0.035</v>
       </c>
       <c r="T193" t="n">
-        <v>2.24128</v>
+        <v>2241.28</v>
       </c>
     </row>
     <row r="194">
@@ -15935,7 +15935,7 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1.672</v>
+        <v>1672</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
@@ -15976,7 +15976,7 @@
         <v>0.035</v>
       </c>
       <c r="T194" t="n">
-        <v>1.72216</v>
+        <v>1722.16</v>
       </c>
     </row>
     <row r="195">
@@ -16015,7 +16015,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>1.982</v>
+        <v>1982</v>
       </c>
       <c r="J195" t="n">
         <v>1</v>
@@ -16056,7 +16056,7 @@
         <v>0.035</v>
       </c>
       <c r="T195" t="n">
-        <v>2.04146</v>
+        <v>2041.46</v>
       </c>
     </row>
     <row r="196">
@@ -16095,7 +16095,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>1.442</v>
+        <v>1442</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -16136,7 +16136,7 @@
         <v>0.035</v>
       </c>
       <c r="T196" t="n">
-        <v>1.48526</v>
+        <v>1485.26</v>
       </c>
     </row>
     <row r="197">
@@ -16175,7 +16175,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>1.58</v>
+        <v>1580</v>
       </c>
       <c r="J197" t="n">
         <v>1</v>
@@ -16216,7 +16216,7 @@
         <v>0.035</v>
       </c>
       <c r="T197" t="n">
-        <v>1.6274</v>
+        <v>1627.4</v>
       </c>
     </row>
     <row r="198">
@@ -16255,7 +16255,7 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1.569</v>
+        <v>1569</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
@@ -16296,7 +16296,7 @@
         <v>0.035</v>
       </c>
       <c r="T198" t="n">
-        <v>1.61607</v>
+        <v>1616.07</v>
       </c>
     </row>
     <row r="199">
@@ -16335,7 +16335,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>2.1</v>
+        <v>2100</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
@@ -16376,7 +16376,7 @@
         <v>0.035</v>
       </c>
       <c r="T199" t="n">
-        <v>2.163</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="200">
@@ -16415,7 +16415,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1.508</v>
+        <v>1508</v>
       </c>
       <c r="J200" t="n">
         <v>1</v>
@@ -16456,7 +16456,7 @@
         <v>0.035</v>
       </c>
       <c r="T200" t="n">
-        <v>1.55324</v>
+        <v>1553.24</v>
       </c>
     </row>
     <row r="201">
@@ -16495,7 +16495,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>2.086</v>
+        <v>2086</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
@@ -16536,7 +16536,7 @@
         <v>0.035</v>
       </c>
       <c r="T201" t="n">
-        <v>2.14858</v>
+        <v>2148.58</v>
       </c>
     </row>
     <row r="202">
@@ -16575,7 +16575,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>1.67</v>
+        <v>1670</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
@@ -16616,7 +16616,7 @@
         <v>0.035</v>
       </c>
       <c r="T202" t="n">
-        <v>1.7201</v>
+        <v>1720.1</v>
       </c>
     </row>
     <row r="203">
@@ -16655,7 +16655,7 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>1.3</v>
+        <v>1300</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
@@ -16696,7 +16696,7 @@
         <v>0.035</v>
       </c>
       <c r="T203" t="n">
-        <v>1.339</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="204">
@@ -16735,7 +16735,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>1.476</v>
+        <v>1476</v>
       </c>
       <c r="J204" t="n">
         <v>1</v>
@@ -16776,7 +16776,7 @@
         <v>0.035</v>
       </c>
       <c r="T204" t="n">
-        <v>1.52028</v>
+        <v>1520.28</v>
       </c>
     </row>
     <row r="205">
@@ -16815,7 +16815,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>2.254</v>
+        <v>2254</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
@@ -16856,7 +16856,7 @@
         <v>0.035</v>
       </c>
       <c r="T205" t="n">
-        <v>2.32162</v>
+        <v>2321.62</v>
       </c>
     </row>
     <row r="206">
@@ -16895,7 +16895,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>2.006</v>
+        <v>2006</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
@@ -16936,7 +16936,7 @@
         <v>0.035</v>
       </c>
       <c r="T206" t="n">
-        <v>2.06618</v>
+        <v>2066.18</v>
       </c>
     </row>
     <row r="207">
@@ -16975,7 +16975,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>1.574</v>
+        <v>1574</v>
       </c>
       <c r="J207" t="n">
         <v>1</v>
@@ -17016,7 +17016,7 @@
         <v>0.035</v>
       </c>
       <c r="T207" t="n">
-        <v>1.62122</v>
+        <v>1621.22</v>
       </c>
     </row>
     <row r="208">
@@ -17055,7 +17055,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1.849</v>
+        <v>1849</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
@@ -17096,7 +17096,7 @@
         <v>0.035</v>
       </c>
       <c r="T208" t="n">
-        <v>1.90447</v>
+        <v>1904.47</v>
       </c>
     </row>
     <row r="209">
@@ -17135,7 +17135,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>2.051</v>
+        <v>2051</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
@@ -17176,7 +17176,7 @@
         <v>0.035</v>
       </c>
       <c r="T209" t="n">
-        <v>2.11253</v>
+        <v>2112.53</v>
       </c>
     </row>
     <row r="210">
@@ -17215,7 +17215,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>1.149</v>
+        <v>1149</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
@@ -17256,7 +17256,7 @@
         <v>0.035</v>
       </c>
       <c r="T210" t="n">
-        <v>1.18347</v>
+        <v>1183.47</v>
       </c>
     </row>
     <row r="211">
@@ -17295,7 +17295,7 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>1.785</v>
+        <v>1785</v>
       </c>
       <c r="J211" t="n">
         <v>1</v>
@@ -17336,7 +17336,7 @@
         <v>0.035</v>
       </c>
       <c r="T211" t="n">
-        <v>1.83855</v>
+        <v>1838.55</v>
       </c>
     </row>
     <row r="212">
@@ -17375,7 +17375,7 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1.848</v>
+        <v>1848</v>
       </c>
       <c r="J212" t="n">
         <v>1</v>
@@ -17416,7 +17416,7 @@
         <v>0.035</v>
       </c>
       <c r="T212" t="n">
-        <v>1.90344</v>
+        <v>1903.44</v>
       </c>
     </row>
     <row r="213">
@@ -17455,7 +17455,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1.896</v>
+        <v>1896</v>
       </c>
       <c r="J213" t="n">
         <v>1</v>
@@ -17496,7 +17496,7 @@
         <v>0.035</v>
       </c>
       <c r="T213" t="n">
-        <v>1.95288</v>
+        <v>1952.88</v>
       </c>
     </row>
     <row r="214">
@@ -17535,7 +17535,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>1.912</v>
+        <v>1912</v>
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
@@ -17576,7 +17576,7 @@
         <v>0.035</v>
       </c>
       <c r="T214" t="n">
-        <v>1.96936</v>
+        <v>1969.36</v>
       </c>
     </row>
     <row r="215">
@@ -17615,7 +17615,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>1.941</v>
+        <v>1941</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
@@ -17656,7 +17656,7 @@
         <v>0.035</v>
       </c>
       <c r="T215" t="n">
-        <v>1.99923</v>
+        <v>1999.23</v>
       </c>
     </row>
     <row r="216">
@@ -17695,7 +17695,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1.226</v>
+        <v>1226</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
@@ -17736,7 +17736,7 @@
         <v>0.035</v>
       </c>
       <c r="T216" t="n">
-        <v>1.26278</v>
+        <v>1262.78</v>
       </c>
     </row>
     <row r="217">
@@ -17775,7 +17775,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>1.734</v>
+        <v>1734</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
@@ -17816,7 +17816,7 @@
         <v>0.035</v>
       </c>
       <c r="T217" t="n">
-        <v>1.78602</v>
+        <v>1786.02</v>
       </c>
     </row>
     <row r="218">
@@ -17855,7 +17855,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>1.728</v>
+        <v>1728</v>
       </c>
       <c r="J218" t="n">
         <v>1</v>
@@ -17896,7 +17896,7 @@
         <v>0.035</v>
       </c>
       <c r="T218" t="n">
-        <v>1.77984</v>
+        <v>1779.84</v>
       </c>
     </row>
     <row r="219">
@@ -17935,7 +17935,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>2.293</v>
+        <v>2293</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
@@ -17976,7 +17976,7 @@
         <v>0.035</v>
       </c>
       <c r="T219" t="n">
-        <v>2.36179</v>
+        <v>2361.79</v>
       </c>
     </row>
     <row r="220">
@@ -18015,7 +18015,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>1.373</v>
+        <v>1373</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
@@ -18056,7 +18056,7 @@
         <v>0.035</v>
       </c>
       <c r="T220" t="n">
-        <v>1.41419</v>
+        <v>1414.19</v>
       </c>
     </row>
     <row r="221">
@@ -18095,7 +18095,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>2.052</v>
+        <v>2052</v>
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
@@ -18136,7 +18136,7 @@
         <v>0.035</v>
       </c>
       <c r="T221" t="n">
-        <v>2.11356</v>
+        <v>2113.56</v>
       </c>
     </row>
     <row r="222">
@@ -18175,7 +18175,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>2.046</v>
+        <v>2046</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
@@ -18216,7 +18216,7 @@
         <v>0.035</v>
       </c>
       <c r="T222" t="n">
-        <v>2.10738</v>
+        <v>2107.38</v>
       </c>
     </row>
     <row r="223">
@@ -18255,7 +18255,7 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>1.449</v>
+        <v>1449</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
@@ -18296,7 +18296,7 @@
         <v>0.035</v>
       </c>
       <c r="T223" t="n">
-        <v>1.49247</v>
+        <v>1492.47</v>
       </c>
     </row>
     <row r="224">
@@ -18335,7 +18335,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>1.456</v>
+        <v>1456</v>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
@@ -18376,7 +18376,7 @@
         <v>0.035</v>
       </c>
       <c r="T224" t="n">
-        <v>1.49968</v>
+        <v>1499.68</v>
       </c>
     </row>
     <row r="225">
@@ -18415,7 +18415,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>1.248</v>
+        <v>1248</v>
       </c>
       <c r="J225" t="n">
         <v>1</v>
@@ -18456,7 +18456,7 @@
         <v>0.035</v>
       </c>
       <c r="T225" t="n">
-        <v>1.28544</v>
+        <v>1285.44</v>
       </c>
     </row>
     <row r="226">
@@ -18495,7 +18495,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>1.447</v>
+        <v>1447</v>
       </c>
       <c r="J226" t="n">
         <v>1</v>
@@ -18536,7 +18536,7 @@
         <v>0.035</v>
       </c>
       <c r="T226" t="n">
-        <v>1.49041</v>
+        <v>1490.41</v>
       </c>
     </row>
     <row r="227">
@@ -18575,7 +18575,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>1.468</v>
+        <v>1468</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
@@ -18616,7 +18616,7 @@
         <v>0.035</v>
       </c>
       <c r="T227" t="n">
-        <v>1.51204</v>
+        <v>1512.04</v>
       </c>
     </row>
     <row r="228">
@@ -18655,7 +18655,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>1.939</v>
+        <v>1939</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
@@ -18696,7 +18696,7 @@
         <v>0.035</v>
       </c>
       <c r="T228" t="n">
-        <v>1.99717</v>
+        <v>1997.17</v>
       </c>
     </row>
     <row r="229">
@@ -18735,7 +18735,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>2.196</v>
+        <v>2196</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
@@ -18776,7 +18776,7 @@
         <v>0.035</v>
       </c>
       <c r="T229" t="n">
-        <v>2.26188</v>
+        <v>2261.88</v>
       </c>
     </row>
     <row r="230">
@@ -18815,7 +18815,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>2.058</v>
+        <v>2058</v>
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
@@ -18856,7 +18856,7 @@
         <v>0.035</v>
       </c>
       <c r="T230" t="n">
-        <v>2.11974</v>
+        <v>2119.74</v>
       </c>
     </row>
     <row r="231">
@@ -18895,7 +18895,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>1.463</v>
+        <v>1463</v>
       </c>
       <c r="J231" t="n">
         <v>1</v>
@@ -18936,7 +18936,7 @@
         <v>0.035</v>
       </c>
       <c r="T231" t="n">
-        <v>1.50689</v>
+        <v>1506.89</v>
       </c>
     </row>
     <row r="232">
@@ -18975,7 +18975,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>1.876</v>
+        <v>1876</v>
       </c>
       <c r="J232" t="n">
         <v>1</v>
@@ -19016,7 +19016,7 @@
         <v>0.035</v>
       </c>
       <c r="T232" t="n">
-        <v>1.93228</v>
+        <v>1932.28</v>
       </c>
     </row>
     <row r="233">
@@ -19055,7 +19055,7 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>1.686</v>
+        <v>1686</v>
       </c>
       <c r="J233" t="n">
         <v>1</v>
@@ -19096,7 +19096,7 @@
         <v>0.035</v>
       </c>
       <c r="T233" t="n">
-        <v>1.73658</v>
+        <v>1736.58</v>
       </c>
     </row>
     <row r="234">
@@ -19135,7 +19135,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>1.245</v>
+        <v>1245</v>
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
@@ -19176,7 +19176,7 @@
         <v>0.035</v>
       </c>
       <c r="T234" t="n">
-        <v>1.28235</v>
+        <v>1282.35</v>
       </c>
     </row>
     <row r="235">
@@ -19215,7 +19215,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>1.32</v>
+        <v>1320</v>
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
@@ -19256,7 +19256,7 @@
         <v>0.035</v>
       </c>
       <c r="T235" t="n">
-        <v>1.3596</v>
+        <v>1359.6</v>
       </c>
     </row>
     <row r="236">
@@ -19295,7 +19295,7 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>1.753</v>
+        <v>1753</v>
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
@@ -19336,7 +19336,7 @@
         <v>0.035</v>
       </c>
       <c r="T236" t="n">
-        <v>1.80559</v>
+        <v>1805.59</v>
       </c>
     </row>
     <row r="237">
@@ -19375,7 +19375,7 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>1.583</v>
+        <v>1583</v>
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
@@ -19416,7 +19416,7 @@
         <v>0.035</v>
       </c>
       <c r="T237" t="n">
-        <v>1.63049</v>
+        <v>1630.49</v>
       </c>
     </row>
     <row r="238">
@@ -19455,7 +19455,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>1.788</v>
+        <v>1788</v>
       </c>
       <c r="J238" t="n">
         <v>1</v>
@@ -19496,7 +19496,7 @@
         <v>0.035</v>
       </c>
       <c r="T238" t="n">
-        <v>1.84164</v>
+        <v>1841.64</v>
       </c>
     </row>
     <row r="239">
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
@@ -19576,7 +19576,7 @@
         <v>0.035</v>
       </c>
       <c r="T239" t="n">
-        <v>1.442</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="240">
@@ -19615,7 +19615,7 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>1.987</v>
+        <v>1987</v>
       </c>
       <c r="J240" t="n">
         <v>1</v>
@@ -19656,7 +19656,7 @@
         <v>0.035</v>
       </c>
       <c r="T240" t="n">
-        <v>2.04661</v>
+        <v>2046.61</v>
       </c>
     </row>
     <row r="241">
@@ -19695,7 +19695,7 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>1.984</v>
+        <v>1984</v>
       </c>
       <c r="J241" t="n">
         <v>1</v>
@@ -19736,7 +19736,7 @@
         <v>0.035</v>
       </c>
       <c r="T241" t="n">
-        <v>2.04352</v>
+        <v>2043.52</v>
       </c>
     </row>
     <row r="242">
@@ -19775,7 +19775,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>1.62</v>
+        <v>1620</v>
       </c>
       <c r="J242" t="n">
         <v>1</v>
@@ -19816,7 +19816,7 @@
         <v>0.035</v>
       </c>
       <c r="T242" t="n">
-        <v>1.6686</v>
+        <v>1668.6</v>
       </c>
     </row>
     <row r="243">
@@ -19855,7 +19855,7 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>2.085</v>
+        <v>2085</v>
       </c>
       <c r="J243" t="n">
         <v>1</v>
@@ -19896,7 +19896,7 @@
         <v>0.035</v>
       </c>
       <c r="T243" t="n">
-        <v>2.14755</v>
+        <v>2147.55</v>
       </c>
     </row>
     <row r="244">
@@ -19935,7 +19935,7 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>2.29</v>
+        <v>2290</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
@@ -19976,7 +19976,7 @@
         <v>0.035</v>
       </c>
       <c r="T244" t="n">
-        <v>2.3587</v>
+        <v>2358.7</v>
       </c>
     </row>
     <row r="245">
@@ -20015,7 +20015,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>1.292</v>
+        <v>1292</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
@@ -20056,7 +20056,7 @@
         <v>0.035</v>
       </c>
       <c r="T245" t="n">
-        <v>1.33076</v>
+        <v>1330.76</v>
       </c>
     </row>
     <row r="246">
@@ -20095,7 +20095,7 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>1.238</v>
+        <v>1238</v>
       </c>
       <c r="J246" t="n">
         <v>1</v>
@@ -20136,7 +20136,7 @@
         <v>0.035</v>
       </c>
       <c r="T246" t="n">
-        <v>1.27514</v>
+        <v>1275.14</v>
       </c>
     </row>
     <row r="247">
@@ -20175,7 +20175,7 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>1.409</v>
+        <v>1409</v>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
@@ -20216,7 +20216,7 @@
         <v>0.035</v>
       </c>
       <c r="T247" t="n">
-        <v>1.45127</v>
+        <v>1451.27</v>
       </c>
     </row>
     <row r="248">
@@ -20255,7 +20255,7 @@
         </is>
       </c>
       <c r="I248" t="n">
-        <v>2.016</v>
+        <v>2016</v>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
@@ -20296,7 +20296,7 @@
         <v>0.035</v>
       </c>
       <c r="T248" t="n">
-        <v>2.07648</v>
+        <v>2076.48</v>
       </c>
     </row>
     <row r="249">
@@ -20335,7 +20335,7 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>1.986</v>
+        <v>1986</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
@@ -20376,7 +20376,7 @@
         <v>0.035</v>
       </c>
       <c r="T249" t="n">
-        <v>2.04558</v>
+        <v>2045.58</v>
       </c>
     </row>
     <row r="250">
@@ -20415,7 +20415,7 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>1.786</v>
+        <v>1786</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
@@ -20456,7 +20456,7 @@
         <v>0.035</v>
       </c>
       <c r="T250" t="n">
-        <v>1.83958</v>
+        <v>1839.58</v>
       </c>
     </row>
     <row r="251">
@@ -20495,7 +20495,7 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>1.978</v>
+        <v>1978</v>
       </c>
       <c r="J251" t="n">
         <v>1</v>
@@ -20536,7 +20536,7 @@
         <v>0.035</v>
       </c>
       <c r="T251" t="n">
-        <v>2.03734</v>
+        <v>2037.34</v>
       </c>
     </row>
     <row r="252">
@@ -20575,7 +20575,7 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>1.962</v>
+        <v>1962</v>
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
@@ -20616,7 +20616,7 @@
         <v>0.035</v>
       </c>
       <c r="T252" t="n">
-        <v>2.02086</v>
+        <v>2020.86</v>
       </c>
     </row>
     <row r="253">
@@ -20655,7 +20655,7 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>1.643</v>
+        <v>1643</v>
       </c>
       <c r="J253" t="n">
         <v>1</v>
@@ -20696,7 +20696,7 @@
         <v>0.035</v>
       </c>
       <c r="T253" t="n">
-        <v>1.69229</v>
+        <v>1692.29</v>
       </c>
     </row>
     <row r="254">
@@ -20735,7 +20735,7 @@
         </is>
       </c>
       <c r="I254" t="n">
-        <v>1.696</v>
+        <v>1696</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
@@ -20776,7 +20776,7 @@
         <v>0.035</v>
       </c>
       <c r="T254" t="n">
-        <v>1.74688</v>
+        <v>1746.88</v>
       </c>
     </row>
     <row r="255">
@@ -20815,7 +20815,7 @@
         </is>
       </c>
       <c r="I255" t="n">
-        <v>2.281</v>
+        <v>2281</v>
       </c>
       <c r="J255" t="n">
         <v>1</v>
@@ -20856,7 +20856,7 @@
         <v>0.035</v>
       </c>
       <c r="T255" t="n">
-        <v>2.34943</v>
+        <v>2349.43</v>
       </c>
     </row>
     <row r="256">
@@ -20895,7 +20895,7 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>2.053</v>
+        <v>2053</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
@@ -20936,7 +20936,7 @@
         <v>0.035</v>
       </c>
       <c r="T256" t="n">
-        <v>2.11459</v>
+        <v>2114.59</v>
       </c>
     </row>
     <row r="257">
@@ -20975,7 +20975,7 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>1.423</v>
+        <v>1423</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
@@ -21016,7 +21016,7 @@
         <v>0.035</v>
       </c>
       <c r="T257" t="n">
-        <v>1.46569</v>
+        <v>1465.69</v>
       </c>
     </row>
     <row r="258">
@@ -21055,7 +21055,7 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>1.356</v>
+        <v>1356</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
@@ -21096,7 +21096,7 @@
         <v>0.035</v>
       </c>
       <c r="T258" t="n">
-        <v>1.39668</v>
+        <v>1396.68</v>
       </c>
     </row>
     <row r="259">
@@ -21135,7 +21135,7 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>1.67</v>
+        <v>1670</v>
       </c>
       <c r="J259" t="n">
         <v>1</v>
@@ -21176,7 +21176,7 @@
         <v>0.035</v>
       </c>
       <c r="T259" t="n">
-        <v>1.7201</v>
+        <v>1720.1</v>
       </c>
     </row>
     <row r="260">
@@ -21215,7 +21215,7 @@
         </is>
       </c>
       <c r="I260" t="n">
-        <v>2.132</v>
+        <v>2132</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
@@ -21256,7 +21256,7 @@
         <v>0.035</v>
       </c>
       <c r="T260" t="n">
-        <v>2.19596</v>
+        <v>2195.96</v>
       </c>
     </row>
     <row r="261">
@@ -21295,7 +21295,7 @@
         </is>
       </c>
       <c r="I261" t="n">
-        <v>1.669</v>
+        <v>1669</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
@@ -21336,7 +21336,7 @@
         <v>0.035</v>
       </c>
       <c r="T261" t="n">
-        <v>1.71907</v>
+        <v>1719.07</v>
       </c>
     </row>
     <row r="262">
@@ -21375,7 +21375,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>1.63</v>
+        <v>1630</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
@@ -21416,7 +21416,7 @@
         <v>0.035</v>
       </c>
       <c r="T262" t="n">
-        <v>1.6789</v>
+        <v>1678.9</v>
       </c>
     </row>
     <row r="263">
@@ -21455,7 +21455,7 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>1.408</v>
+        <v>1408</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
@@ -21496,7 +21496,7 @@
         <v>0.035</v>
       </c>
       <c r="T263" t="n">
-        <v>1.45024</v>
+        <v>1450.24</v>
       </c>
     </row>
     <row r="264">
@@ -21535,7 +21535,7 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>1.441</v>
+        <v>1441</v>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
@@ -21576,7 +21576,7 @@
         <v>0.035</v>
       </c>
       <c r="T264" t="n">
-        <v>1.48423</v>
+        <v>1484.23</v>
       </c>
     </row>
     <row r="265">
@@ -21615,7 +21615,7 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>1.817</v>
+        <v>1817</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
@@ -21656,7 +21656,7 @@
         <v>0.035</v>
       </c>
       <c r="T265" t="n">
-        <v>1.87151</v>
+        <v>1871.51</v>
       </c>
     </row>
     <row r="266">
@@ -21695,7 +21695,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>1.432</v>
+        <v>1432</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
@@ -21736,7 +21736,7 @@
         <v>0.035</v>
       </c>
       <c r="T266" t="n">
-        <v>1.47496</v>
+        <v>1474.96</v>
       </c>
     </row>
     <row r="267">
@@ -21775,7 +21775,7 @@
         </is>
       </c>
       <c r="I267" t="n">
-        <v>1.348</v>
+        <v>1348</v>
       </c>
       <c r="J267" t="n">
         <v>1</v>
@@ -21816,7 +21816,7 @@
         <v>0.035</v>
       </c>
       <c r="T267" t="n">
-        <v>1.38844</v>
+        <v>1388.44</v>
       </c>
     </row>
     <row r="268">
@@ -21855,7 +21855,7 @@
         </is>
       </c>
       <c r="I268" t="n">
-        <v>2.045</v>
+        <v>2045</v>
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
@@ -21896,7 +21896,7 @@
         <v>0.035</v>
       </c>
       <c r="T268" t="n">
-        <v>2.10635</v>
+        <v>2106.35</v>
       </c>
     </row>
     <row r="269">
@@ -21935,7 +21935,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>1.17</v>
+        <v>1170</v>
       </c>
       <c r="J269" t="n">
         <v>1</v>
@@ -21976,7 +21976,7 @@
         <v>0.035</v>
       </c>
       <c r="T269" t="n">
-        <v>1.2051</v>
+        <v>1205.1</v>
       </c>
     </row>
     <row r="270">
@@ -22015,7 +22015,7 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>1.444</v>
+        <v>1444</v>
       </c>
       <c r="J270" t="n">
         <v>1</v>
@@ -22056,7 +22056,7 @@
         <v>0.035</v>
       </c>
       <c r="T270" t="n">
-        <v>1.48732</v>
+        <v>1487.32</v>
       </c>
     </row>
     <row r="271">
@@ -22095,7 +22095,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>1.663</v>
+        <v>1663</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
@@ -22136,7 +22136,7 @@
         <v>0.035</v>
       </c>
       <c r="T271" t="n">
-        <v>1.71289</v>
+        <v>1712.89</v>
       </c>
     </row>
     <row r="272">
@@ -22175,7 +22175,7 @@
         </is>
       </c>
       <c r="I272" t="n">
-        <v>1.396</v>
+        <v>1396</v>
       </c>
       <c r="J272" t="n">
         <v>1</v>
@@ -22216,7 +22216,7 @@
         <v>0.035</v>
       </c>
       <c r="T272" t="n">
-        <v>1.43788</v>
+        <v>1437.88</v>
       </c>
     </row>
     <row r="273">
@@ -22255,7 +22255,7 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>1.358</v>
+        <v>1358</v>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
@@ -22296,7 +22296,7 @@
         <v>0.035</v>
       </c>
       <c r="T273" t="n">
-        <v>1.39874</v>
+        <v>1398.74</v>
       </c>
     </row>
     <row r="274">
@@ -22335,7 +22335,7 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>1.959</v>
+        <v>1959</v>
       </c>
       <c r="J274" t="n">
         <v>1</v>
@@ -22376,7 +22376,7 @@
         <v>0.035</v>
       </c>
       <c r="T274" t="n">
-        <v>2.01777</v>
+        <v>2017.77</v>
       </c>
     </row>
     <row r="275">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="I275" t="n">
-        <v>2.002</v>
+        <v>2002</v>
       </c>
       <c r="J275" t="n">
         <v>1</v>
@@ -22456,7 +22456,7 @@
         <v>0.035</v>
       </c>
       <c r="T275" t="n">
-        <v>2.06206</v>
+        <v>2062.06</v>
       </c>
     </row>
     <row r="276">
@@ -22495,7 +22495,7 @@
         </is>
       </c>
       <c r="I276" t="n">
-        <v>1.698</v>
+        <v>1698</v>
       </c>
       <c r="J276" t="n">
         <v>1</v>
@@ -22536,7 +22536,7 @@
         <v>0.035</v>
       </c>
       <c r="T276" t="n">
-        <v>1.74894</v>
+        <v>1748.94</v>
       </c>
     </row>
     <row r="277">
@@ -22575,7 +22575,7 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>1.555</v>
+        <v>1555</v>
       </c>
       <c r="J277" t="n">
         <v>1</v>
@@ -22616,7 +22616,7 @@
         <v>0.035</v>
       </c>
       <c r="T277" t="n">
-        <v>1.60165</v>
+        <v>1601.65</v>
       </c>
     </row>
     <row r="278">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>1.211</v>
+        <v>1211</v>
       </c>
       <c r="J278" t="n">
         <v>1</v>
@@ -22696,7 +22696,7 @@
         <v>0.035</v>
       </c>
       <c r="T278" t="n">
-        <v>1.24733</v>
+        <v>1247.33</v>
       </c>
     </row>
     <row r="279">
@@ -22735,7 +22735,7 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>1.824</v>
+        <v>1824</v>
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
@@ -22776,7 +22776,7 @@
         <v>0.035</v>
       </c>
       <c r="T279" t="n">
-        <v>1.87872</v>
+        <v>1878.72</v>
       </c>
     </row>
     <row r="280">
@@ -22815,7 +22815,7 @@
         </is>
       </c>
       <c r="I280" t="n">
-        <v>2.087</v>
+        <v>2087</v>
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
@@ -22856,7 +22856,7 @@
         <v>0.035</v>
       </c>
       <c r="T280" t="n">
-        <v>2.14961</v>
+        <v>2149.61</v>
       </c>
     </row>
     <row r="281">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="I281" t="n">
-        <v>1.636</v>
+        <v>1636</v>
       </c>
       <c r="J281" t="n">
         <v>1</v>
@@ -22936,7 +22936,7 @@
         <v>0.035</v>
       </c>
       <c r="T281" t="n">
-        <v>1.68508</v>
+        <v>1685.08</v>
       </c>
     </row>
     <row r="282">
@@ -22975,7 +22975,7 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>1.358</v>
+        <v>1358</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
@@ -23016,7 +23016,7 @@
         <v>0.035</v>
       </c>
       <c r="T282" t="n">
-        <v>1.39874</v>
+        <v>1398.74</v>
       </c>
     </row>
     <row r="283">
@@ -23055,7 +23055,7 @@
         </is>
       </c>
       <c r="I283" t="n">
-        <v>2.253</v>
+        <v>2253</v>
       </c>
       <c r="J283" t="n">
         <v>1</v>
@@ -23096,7 +23096,7 @@
         <v>0.035</v>
       </c>
       <c r="T283" t="n">
-        <v>2.32059</v>
+        <v>2320.59</v>
       </c>
     </row>
     <row r="284">
@@ -23135,7 +23135,7 @@
         </is>
       </c>
       <c r="I284" t="n">
-        <v>1.965</v>
+        <v>1965</v>
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
@@ -23176,7 +23176,7 @@
         <v>0.035</v>
       </c>
       <c r="T284" t="n">
-        <v>2.02395</v>
+        <v>2023.95</v>
       </c>
     </row>
     <row r="285">
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>2.223</v>
+        <v>2223</v>
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
@@ -23256,7 +23256,7 @@
         <v>0.035</v>
       </c>
       <c r="T285" t="n">
-        <v>2.28969</v>
+        <v>2289.69</v>
       </c>
     </row>
     <row r="286">
@@ -23295,7 +23295,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>1.345</v>
+        <v>1345</v>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
@@ -23336,7 +23336,7 @@
         <v>0.035</v>
       </c>
       <c r="T286" t="n">
-        <v>1.38535</v>
+        <v>1385.35</v>
       </c>
     </row>
     <row r="287">
@@ -23375,7 +23375,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>2.064</v>
+        <v>2064</v>
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
@@ -23416,7 +23416,7 @@
         <v>0.035</v>
       </c>
       <c r="T287" t="n">
-        <v>2.12592</v>
+        <v>2125.92</v>
       </c>
     </row>
     <row r="288">
@@ -23455,7 +23455,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>1.765</v>
+        <v>1765</v>
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
@@ -23496,7 +23496,7 @@
         <v>0.035</v>
       </c>
       <c r="T288" t="n">
-        <v>1.81795</v>
+        <v>1817.95</v>
       </c>
     </row>
     <row r="289">
@@ -23535,7 +23535,7 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>1.596</v>
+        <v>1596</v>
       </c>
       <c r="J289" t="n">
         <v>1</v>
@@ -23576,7 +23576,7 @@
         <v>0.035</v>
       </c>
       <c r="T289" t="n">
-        <v>1.64388</v>
+        <v>1643.88</v>
       </c>
     </row>
     <row r="290">
@@ -23615,7 +23615,7 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>1.739</v>
+        <v>1739</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
@@ -23656,7 +23656,7 @@
         <v>0.035</v>
       </c>
       <c r="T290" t="n">
-        <v>1.79117</v>
+        <v>1791.17</v>
       </c>
     </row>
     <row r="291">
@@ -23695,7 +23695,7 @@
         </is>
       </c>
       <c r="I291" t="n">
-        <v>1.716</v>
+        <v>1716</v>
       </c>
       <c r="J291" t="n">
         <v>1</v>
@@ -23736,7 +23736,7 @@
         <v>0.035</v>
       </c>
       <c r="T291" t="n">
-        <v>1.76748</v>
+        <v>1767.48</v>
       </c>
     </row>
     <row r="292">
@@ -23775,7 +23775,7 @@
         </is>
       </c>
       <c r="I292" t="n">
-        <v>1.351</v>
+        <v>1351</v>
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
@@ -23816,7 +23816,7 @@
         <v>0.035</v>
       </c>
       <c r="T292" t="n">
-        <v>1.39153</v>
+        <v>1391.53</v>
       </c>
     </row>
     <row r="293">
@@ -23855,7 +23855,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>1.399</v>
+        <v>1399</v>
       </c>
       <c r="J293" t="n">
         <v>1</v>
@@ -23896,7 +23896,7 @@
         <v>0.035</v>
       </c>
       <c r="T293" t="n">
-        <v>1.44097</v>
+        <v>1440.97</v>
       </c>
     </row>
     <row r="294">
@@ -23935,7 +23935,7 @@
         </is>
       </c>
       <c r="I294" t="n">
-        <v>2.115</v>
+        <v>2115</v>
       </c>
       <c r="J294" t="n">
         <v>1</v>
@@ -23976,7 +23976,7 @@
         <v>0.035</v>
       </c>
       <c r="T294" t="n">
-        <v>2.17845</v>
+        <v>2178.45</v>
       </c>
     </row>
     <row r="295">
@@ -24015,7 +24015,7 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>1.549</v>
+        <v>1549</v>
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
@@ -24056,7 +24056,7 @@
         <v>0.035</v>
       </c>
       <c r="T295" t="n">
-        <v>1.59547</v>
+        <v>1595.47</v>
       </c>
     </row>
     <row r="296">
@@ -24095,7 +24095,7 @@
         </is>
       </c>
       <c r="I296" t="n">
-        <v>1.437</v>
+        <v>1437</v>
       </c>
       <c r="J296" t="n">
         <v>1</v>
@@ -24136,7 +24136,7 @@
         <v>0.035</v>
       </c>
       <c r="T296" t="n">
-        <v>1.48011</v>
+        <v>1480.11</v>
       </c>
     </row>
     <row r="297">
@@ -24175,7 +24175,7 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>1.758</v>
+        <v>1758</v>
       </c>
       <c r="J297" t="n">
         <v>1</v>
@@ -24216,7 +24216,7 @@
         <v>0.035</v>
       </c>
       <c r="T297" t="n">
-        <v>1.81074</v>
+        <v>1810.74</v>
       </c>
     </row>
     <row r="298">
@@ -24255,7 +24255,7 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>2.216</v>
+        <v>2216</v>
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
@@ -24296,7 +24296,7 @@
         <v>0.035</v>
       </c>
       <c r="T298" t="n">
-        <v>2.28248</v>
+        <v>2282.48</v>
       </c>
     </row>
     <row r="299">
@@ -24335,7 +24335,7 @@
         </is>
       </c>
       <c r="I299" t="n">
-        <v>1.324</v>
+        <v>1324</v>
       </c>
       <c r="J299" t="n">
         <v>1</v>
@@ -24376,7 +24376,7 @@
         <v>0.035</v>
       </c>
       <c r="T299" t="n">
-        <v>1.36372</v>
+        <v>1363.72</v>
       </c>
     </row>
     <row r="300">
@@ -24415,7 +24415,7 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>1.663</v>
+        <v>1663</v>
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
@@ -24456,7 +24456,7 @@
         <v>0.035</v>
       </c>
       <c r="T300" t="n">
-        <v>1.71289</v>
+        <v>1712.89</v>
       </c>
     </row>
     <row r="301">
@@ -24495,7 +24495,7 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>2.152</v>
+        <v>2152</v>
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
@@ -24536,7 +24536,7 @@
         <v>0.035</v>
       </c>
       <c r="T301" t="n">
-        <v>2.21656</v>
+        <v>2216.56</v>
       </c>
     </row>
     <row r="302">
@@ -24575,7 +24575,7 @@
         </is>
       </c>
       <c r="I302" t="n">
-        <v>1.441</v>
+        <v>1441</v>
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
@@ -24616,7 +24616,7 @@
         <v>0.035</v>
       </c>
       <c r="T302" t="n">
-        <v>1.48423</v>
+        <v>1484.23</v>
       </c>
     </row>
     <row r="303">
@@ -24655,7 +24655,7 @@
         </is>
       </c>
       <c r="I303" t="n">
-        <v>1.551</v>
+        <v>1551</v>
       </c>
       <c r="J303" t="n">
         <v>1</v>
@@ -24696,7 +24696,7 @@
         <v>0.035</v>
       </c>
       <c r="T303" t="n">
-        <v>1.59753</v>
+        <v>1597.53</v>
       </c>
     </row>
     <row r="304">
@@ -24735,7 +24735,7 @@
         </is>
       </c>
       <c r="I304" t="n">
-        <v>1.329</v>
+        <v>1329</v>
       </c>
       <c r="J304" t="n">
         <v>1</v>
@@ -24776,7 +24776,7 @@
         <v>0.035</v>
       </c>
       <c r="T304" t="n">
-        <v>1.36887</v>
+        <v>1368.87</v>
       </c>
     </row>
     <row r="305">
@@ -24815,7 +24815,7 @@
         </is>
       </c>
       <c r="I305" t="n">
-        <v>1.459</v>
+        <v>1459</v>
       </c>
       <c r="J305" t="n">
         <v>1</v>
@@ -24856,7 +24856,7 @@
         <v>0.035</v>
       </c>
       <c r="T305" t="n">
-        <v>1.50277</v>
+        <v>1502.77</v>
       </c>
     </row>
     <row r="306">
@@ -24895,7 +24895,7 @@
         </is>
       </c>
       <c r="I306" t="n">
-        <v>1.209</v>
+        <v>1209</v>
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
@@ -24936,7 +24936,7 @@
         <v>0.035</v>
       </c>
       <c r="T306" t="n">
-        <v>1.24527</v>
+        <v>1245.27</v>
       </c>
     </row>
     <row r="307">
@@ -24975,7 +24975,7 @@
         </is>
       </c>
       <c r="I307" t="n">
-        <v>1.465</v>
+        <v>1465</v>
       </c>
       <c r="J307" t="n">
         <v>1</v>
@@ -25016,7 +25016,7 @@
         <v>0.035</v>
       </c>
       <c r="T307" t="n">
-        <v>1.50895</v>
+        <v>1508.95</v>
       </c>
     </row>
     <row r="308">
@@ -25055,7 +25055,7 @@
         </is>
       </c>
       <c r="I308" t="n">
-        <v>1.501</v>
+        <v>1501</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
@@ -25096,7 +25096,7 @@
         <v>0.035</v>
       </c>
       <c r="T308" t="n">
-        <v>1.54603</v>
+        <v>1546.03</v>
       </c>
     </row>
     <row r="309">
@@ -25135,7 +25135,7 @@
         </is>
       </c>
       <c r="I309" t="n">
-        <v>1.758</v>
+        <v>1758</v>
       </c>
       <c r="J309" t="n">
         <v>1</v>
@@ -25176,7 +25176,7 @@
         <v>0.035</v>
       </c>
       <c r="T309" t="n">
-        <v>1.81074</v>
+        <v>1810.74</v>
       </c>
     </row>
     <row r="310">
@@ -25215,7 +25215,7 @@
         </is>
       </c>
       <c r="I310" t="n">
-        <v>1.172</v>
+        <v>1172</v>
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
@@ -25256,7 +25256,7 @@
         <v>0.035</v>
       </c>
       <c r="T310" t="n">
-        <v>1.20716</v>
+        <v>1207.16</v>
       </c>
     </row>
     <row r="311">
@@ -25295,7 +25295,7 @@
         </is>
       </c>
       <c r="I311" t="n">
-        <v>1.35</v>
+        <v>1350</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
@@ -25336,7 +25336,7 @@
         <v>0.035</v>
       </c>
       <c r="T311" t="n">
-        <v>1.3905</v>
+        <v>1390.5</v>
       </c>
     </row>
     <row r="312">
@@ -25375,7 +25375,7 @@
         </is>
       </c>
       <c r="I312" t="n">
-        <v>1.267</v>
+        <v>1267</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
@@ -25416,7 +25416,7 @@
         <v>0.035</v>
       </c>
       <c r="T312" t="n">
-        <v>1.30501</v>
+        <v>1305.01</v>
       </c>
     </row>
     <row r="313">
@@ -25455,7 +25455,7 @@
         </is>
       </c>
       <c r="I313" t="n">
-        <v>1.678</v>
+        <v>1678</v>
       </c>
       <c r="J313" t="n">
         <v>1</v>
@@ -25496,7 +25496,7 @@
         <v>0.035</v>
       </c>
       <c r="T313" t="n">
-        <v>1.72834</v>
+        <v>1728.34</v>
       </c>
     </row>
     <row r="314">
@@ -25535,7 +25535,7 @@
         </is>
       </c>
       <c r="I314" t="n">
-        <v>1.393</v>
+        <v>1393</v>
       </c>
       <c r="J314" t="n">
         <v>1</v>
@@ -25576,7 +25576,7 @@
         <v>0.035</v>
       </c>
       <c r="T314" t="n">
-        <v>1.43479</v>
+        <v>1434.79</v>
       </c>
     </row>
     <row r="315">
@@ -25615,7 +25615,7 @@
         </is>
       </c>
       <c r="I315" t="n">
-        <v>2.187</v>
+        <v>2187</v>
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
@@ -25656,7 +25656,7 @@
         <v>0.035</v>
       </c>
       <c r="T315" t="n">
-        <v>2.25261</v>
+        <v>2252.61</v>
       </c>
     </row>
     <row r="316">
@@ -25695,7 +25695,7 @@
         </is>
       </c>
       <c r="I316" t="n">
-        <v>1.186</v>
+        <v>1186</v>
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
@@ -25736,7 +25736,7 @@
         <v>0.035</v>
       </c>
       <c r="T316" t="n">
-        <v>1.22158</v>
+        <v>1221.58</v>
       </c>
     </row>
     <row r="317">
@@ -25775,7 +25775,7 @@
         </is>
       </c>
       <c r="I317" t="n">
-        <v>1.714</v>
+        <v>1714</v>
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
@@ -25816,7 +25816,7 @@
         <v>0.035</v>
       </c>
       <c r="T317" t="n">
-        <v>1.76542</v>
+        <v>1765.42</v>
       </c>
     </row>
     <row r="318">
@@ -25855,7 +25855,7 @@
         </is>
       </c>
       <c r="I318" t="n">
-        <v>1.717</v>
+        <v>1717</v>
       </c>
       <c r="J318" t="n">
         <v>1</v>
@@ -25896,7 +25896,7 @@
         <v>0.035</v>
       </c>
       <c r="T318" t="n">
-        <v>1.76851</v>
+        <v>1768.51</v>
       </c>
     </row>
     <row r="319">
@@ -25935,7 +25935,7 @@
         </is>
       </c>
       <c r="I319" t="n">
-        <v>1.216</v>
+        <v>1216</v>
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
@@ -25976,7 +25976,7 @@
         <v>0.035</v>
       </c>
       <c r="T319" t="n">
-        <v>1.25248</v>
+        <v>1252.48</v>
       </c>
     </row>
   </sheetData>
